--- a/biology/Médecine/Équithérapie_sur_lit_bâché/Équithérapie_sur_lit_bâché.xlsx
+++ b/biology/Médecine/Équithérapie_sur_lit_bâché/Équithérapie_sur_lit_bâché.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89quith%C3%A9rapie_sur_lit_b%C3%A2ch%C3%A9</t>
+          <t>Équithérapie_sur_lit_bâché</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'équithérapie sur lit bâché est une méthode d'équithérapie destinée aux personnes poly-handicapées physiques.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89quith%C3%A9rapie_sur_lit_b%C3%A2ch%C3%A9</t>
+          <t>Équithérapie_sur_lit_bâché</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'équithérapie sur lit bâché est indiquée aux personnes qui, en raison de leur handicap, bougent peu, marchent peu ou sont incapables de marcher.
 Le but est de faire se mouvoir facilement les poly-handicapés physiques. La méthode stimule la circulation du sang et des fonctions vitales de l'organisme comme le métabolisme et la digestion, et permet de réduire des troubles comme la constipation et les spasmes. Par ailleurs, la cadence, la chaleur des chevaux et le contexte font que le patient se détend, éprouve du plaisir et reçoit un massage.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89quith%C3%A9rapie_sur_lit_b%C3%A2ch%C3%A9</t>
+          <t>Équithérapie_sur_lit_bâché</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un lit bâché est une structure en acier à laquelle sont attelés deux chevaux spécialement entraînés à la tâche. Au-dessus du dos des chevaux est tendue une bâche sur laquelle le patient subit des mouvements en position couchée. Le lit bâché peut être conduit dans ou en dehors du manège.
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89quith%C3%A9rapie_sur_lit_b%C3%A2ch%C3%A9</t>
+          <t>Équithérapie_sur_lit_bâché</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Les chevaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chevaux utilisés sont généralement de races Tinker, Fjord et Haflinger. Une hauteur au garrot de 1,40 à 1,45 m est idéale. 
 Les chevaux doivent avoir la même hauteur au garrot, de préférence un dos long et un pas calme et régulier. La formation d'une paire de chevaux exige souvent une année.
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89quith%C3%A9rapie_sur_lit_b%C3%A2ch%C3%A9</t>
+          <t>Équithérapie_sur_lit_bâché</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>L'appareillage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Globalement, il existe trois types de lit bâché :
 le type « standard » à trois roues, avec une seule roue pivotante à l'avant et un essieu à l'arrière sur lequel se trouve le siège du cocher/conducteur de lit bâché ;
@@ -631,7 +651,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89quith%C3%A9rapie_sur_lit_b%C3%A2ch%C3%A9</t>
+          <t>Équithérapie_sur_lit_bâché</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -649,7 +669,9 @@
           <t>Le manège</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans un manège, l'espace doit de préférence être le plus vaste possible (40 x 20 m au moins) et comporter un sol plan et solide.
 Des équipements (médicaux) supplémentaires peuvent être nécessaires en fonction du patient.
